--- a/medicine/Enfance/No_et_moi/No_et_moi.xlsx
+++ b/medicine/Enfance/No_et_moi/No_et_moi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-No et moi est un roman français de Delphine de Vigan publié le 22 août 2007 aux éditions J.C. Lattès et ayant reçu le prix des libraires l'année suivante[2].
+No et moi est un roman français de Delphine de Vigan publié le 22 août 2007 aux éditions J.C. Lattès et ayant reçu le prix des libraires l'année suivante.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lou Bertignac est une jeune surdouée (160 de QI) âgée d'à peine treize ans, et elle a des questions plein la tête. Lou se sent totalement rejetée du fait de ses deux années d’avance au lycée ; elle se met à l’écart et culpabilise sur ses difficultés à avoir de véritables relations sociales avec les autres élèves, de plus elle est secrètement amoureuse de Lucas Muller, son camarade de classe âgé de dix-sept ans et qui n'est pas sans sentiments pour elle.
 Lucas vit seul dans un appartement que son père a quitté un an plus tôt en ne laissant qu'une lettre, pour aller au Brésil d'où il envoie régulièrement de l'argent et des cartes postales ; sa mère a très vite trouvé un homme avec lequel Lucas ne s'entend pas vraiment, et elle vit désormais à Neuilly, ne revenant que certains week-ends. Possédant une connaissance encyclopédique, Lou est dans une famille dysfonctionnelle, puisque sa mère est traumatisée par la mort subite de sa fille Thaïs, alors nourrisson, quelques années plus tôt. Son père feint la bonne humeur en permanence pour masquer ses problèmes.
-Lorsque le moment arrive de choisir le thème d’un exposé au lycée son professeur de Sciences Économiques et Sociales (discipline du tronc commun de seconde), M. Marin, qui a remarqué qu'elle n'avait rien prévu, lui demande ce qu'elle compte choisir. Lou, paniquée à l’idée de se faire remarquer, choisit un sujet particulièrement difficile : elle décide d’aborder le thème des sans-abris, qui va la confronter à la dureté du monde qui l’entoure. Elle espère trouver une excuse pour échapper à l'exposé quand elle rencontre, à la gare d'Austerlitz, une jeune sans-abri du nom de Nolwenn[3], surnommée No. Cette jeune femme à peine plus âgée qu'elle, au visage marqué par les stigmates de la vie de la rue, a les vêtements sales et des difficultés à s’exprimer. No a 18 ans et elle est à la rue depuis quelques mois. Lou discute avec elle et se rend compte de la similitude entre No et son projet et lui demande son aide pour son travail (pendant qu'elles boivent un verre dans un café) et la jeune femme accepte
+Lorsque le moment arrive de choisir le thème d’un exposé au lycée son professeur de Sciences Économiques et Sociales (discipline du tronc commun de seconde), M. Marin, qui a remarqué qu'elle n'avait rien prévu, lui demande ce qu'elle compte choisir. Lou, paniquée à l’idée de se faire remarquer, choisit un sujet particulièrement difficile : elle décide d’aborder le thème des sans-abris, qui va la confronter à la dureté du monde qui l’entoure. Elle espère trouver une excuse pour échapper à l'exposé quand elle rencontre, à la gare d'Austerlitz, une jeune sans-abri du nom de Nolwenn, surnommée No. Cette jeune femme à peine plus âgée qu'elle, au visage marqué par les stigmates de la vie de la rue, a les vêtements sales et des difficultés à s’exprimer. No a 18 ans et elle est à la rue depuis quelques mois. Lou discute avec elle et se rend compte de la similitude entre No et son projet et lui demande son aide pour son travail (pendant qu'elles boivent un verre dans un café) et la jeune femme accepte
 Après son exposé (qu'elle a réussi), elle cherche No car, entre les deux filles, une véritable amitié est née. Mais celle-ci la repousse : elles ne sont pas du même monde. Lou a fini par s’attacher à son histoire, et le côté écorchée vive, sauvage et rebelle de No interpelle la lycéenne. La mère de No, Suzanne, a été violée par quatre hommes et est tombée enceinte à 15 ans ; elle n'a jamais voulu la toucher, ni la regarder, ce qui fait qu'elle fut élevée par ses grands-parents (sa mère vivant avec elle, alors), puis Suzanne a rencontré un homme qui travaillait à Choisy-le-Roi et qui l'a emmenée à Paris.
 À l'âge de sept ans, No a trouvé sa grand-mère morte et part vivre avec sa mère et l'homme qui s'occupe bien d'elle, alors que sa mère garde la même attitude qu'avant, ce qui cause bien des disputes, jusqu'au jour où l'homme part, que sa mère commence à boire et à maltraiter sa fille par négligence. No est retirée à la garde de sa mère et mise en famille d'accueil chez les Langlois où elle a commencé à fuguer, puis est alors placée en internat lorsqu'elle avait 12 ans où elle a rencontré Loïc (son premier amour) et Geneviève (une amie). Quand ceux-ci sont partis, elle a fugué et s'est retrouvée à la rue.
 Lou découvre alors un monde terrible où des hommes et des femmes dorment comme ils peuvent dans la rue ; les queues pour obtenir un repas chaud et qui s’obligent à marcher constamment pour ne pas mourir de froid. À sa grande stupeur, Lou constate que 200 000 à 300 000 personnes vivent dans la rue en France et que 40 % des sans domiciles fixes sont des femmes. Elle apprend, horrifiée, que 70 % des SDF âgés de 16 à 18 ans sont des femmes et que le chiffre est en constante augmentation.
@@ -553,9 +567,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre se vend à 100 000 exemplaires l'année de sa parution[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre se vend à 100 000 exemplaires l'année de sa parution.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman fait l'objet en 2010 d'une adaptation au cinéma, No et moi, film réalisé par Zabou Breitman ayant pour interprètes Zabou Breitman, Bernard Campan, Julie-Marie Parmentier et Nina Rodriguez.
 </t>
@@ -615,7 +633,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>No et moi, Éditions J.C. Lattès, coll. « Littérature française », 2007, 285 p. (ISBN 978-2-7096-2861-7, BNF 41061177).
 No et moi, Librairie générale française, coll. « Le Livre de poche » (no 31277), 2009, 248 p. (ISBN 978-2-253-12480-1, OCLC 495349237).</t>
